--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZestIOT\src\test\resources\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6015"/>
   </bookViews>
@@ -14,12 +19,11 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A10:M27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="70">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -219,16 +223,16 @@
     <t>ZestIOT_021_Verifying_COBT_For_GMR_HYD_SG_User</t>
   </si>
   <si>
-    <t>ZestIOT_022_DIAL_Sensor_And_Scheduled_data_Validation</t>
-  </si>
-  <si>
-    <t>ZestIOT_019_GMR_HYD_Sensor_And_Scheduled_data_Validation</t>
-  </si>
-  <si>
     <t>ZestIOT_015_Celebi_User_Pushback_group_Activity_Validation</t>
   </si>
   <si>
     <t>ZestIOT_016_Celebi_User_BFL_group_Activity_Validation</t>
+  </si>
+  <si>
+    <t>ZestIOT_018_GMR_HYD_Sensor_And_Scheduled_data_Validation</t>
+  </si>
+  <si>
+    <t>stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -339,7 +343,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -353,9 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -643,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +783,9 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -809,16 +812,19 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A17" sqref="A17:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +978,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>7</v>
@@ -983,7 +989,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>7</v>
@@ -994,7 +1000,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>7</v>
@@ -1016,7 +1022,7 @@
         <v>64</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,23 +1030,15 @@
         <v>65</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1050,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,6 +1236,38 @@
         <v>62</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1245,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A17" sqref="A17:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,6 +1461,38 @@
       </c>
       <c r="C16" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>ZestIOT_018_GMR_HYD_Sensor_And_Scheduled_data_Validation</t>
-  </si>
-  <si>
-    <t>stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -645,7 +642,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,9 +780,7 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -812,9 +807,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="75">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -230,6 +230,24 @@
   </si>
   <si>
     <t>ZestIOT_018_GMR_HYD_Sensor_And_Scheduled_data_Validation</t>
+  </si>
+  <si>
+    <t>ZestIOT_2268_Verifying_COBT_For_DIALCelebi_User</t>
+  </si>
+  <si>
+    <t>ZestIOT_2268_Verifying_COBT_For_GMR_HYD_AISATS_User</t>
+  </si>
+  <si>
+    <t>ZestIOT_2268_Verifying_COBT_For_GMR_HYD_SG_User</t>
+  </si>
+  <si>
+    <t>ZestIOT_2293_GMR_HYD_Sensor_And_Scheduled_data_Validation</t>
+  </si>
+  <si>
+    <t>ZestIOT_2294_GMR_HYD_SensorATD_And_Scheduled_data_Validation</t>
+  </si>
+  <si>
+    <t>stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -641,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +798,9 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -807,16 +827,19 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1026,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>10</v>
@@ -1011,7 +1034,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
@@ -1019,7 +1042,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
@@ -1027,9 +1050,17 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
     <t>ZestIOT_2294_GMR_HYD_SensorATD_And_Scheduled_data_Validation</t>
   </si>
   <si>
-    <t>stiyyagura@enhops.com</t>
+    <t>pdwadasi@enhops.com, anantwar@zestiot.io, rbuddha@enhops.com, smunnangi@enhops.com, mpyla@enhops.com, rchiluka@enhops.com, stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -838,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
     <t>ZestIOT_2294_GMR_HYD_SensorATD_And_Scheduled_data_Validation</t>
   </si>
   <si>
-    <t>pdwadasi@enhops.com, anantwar@zestiot.io, rbuddha@enhops.com, smunnangi@enhops.com, mpyla@enhops.com, rchiluka@enhops.com, stiyyagura@enhops.com</t>
+    <t xml:space="preserve"> anantwar@zestiot.io, pdwadasi@enhops.com, rbuddha@enhops.com, smunnangi@enhops.com, mpyla@enhops.com, rchiluka@enhops.com, stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -798,9 +798,6 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -827,9 +824,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1073,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,15 +1253,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1275,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1292,6 +1289,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" display="stiyyagura@enhops.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1301,7 +1301,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6015" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve"> anantwar@zestiot.io, pdwadasi@enhops.com, rbuddha@enhops.com, smunnangi@enhops.com, mpyla@enhops.com, rchiluka@enhops.com, stiyyagura@enhops.com</t>
+  </si>
+  <si>
+    <t>stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,6 +801,9 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="B25" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -824,6 +830,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1067,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZestIOT\src\test\resources\ExcelFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -19,11 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A8:C23"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -229,9 +225,6 @@
     <t>ZestIOT_016_Celebi_User_BFL_group_Activity_Validation</t>
   </si>
   <si>
-    <t>ZestIOT_018_GMR_HYD_Sensor_And_Scheduled_data_Validation</t>
-  </si>
-  <si>
     <t>ZestIOT_2268_Verifying_COBT_For_DIALCelebi_User</t>
   </si>
   <si>
@@ -241,16 +234,16 @@
     <t>ZestIOT_2268_Verifying_COBT_For_GMR_HYD_SG_User</t>
   </si>
   <si>
-    <t>ZestIOT_2293_GMR_HYD_Sensor_And_Scheduled_data_Validation</t>
-  </si>
-  <si>
-    <t>ZestIOT_2294_GMR_HYD_SensorATD_And_Scheduled_data_Validation</t>
-  </si>
-  <si>
     <t xml:space="preserve"> anantwar@zestiot.io, pdwadasi@enhops.com, rbuddha@enhops.com, smunnangi@enhops.com, mpyla@enhops.com, rchiluka@enhops.com, stiyyagura@enhops.com</t>
   </si>
   <si>
     <t>stiyyagura@enhops.com</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2293_GMR_HYD_SensorATA_And_Scheduled_data_Validation</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2294_GMR_HYD_SensorATD_And_Scheduled_data_Validation</t>
   </si>
 </sst>
 </file>
@@ -361,7 +354,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -375,6 +368,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -662,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1025,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>10</v>
@@ -1037,7 +1033,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
@@ -1045,23 +1041,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>72</v>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>73</v>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>10</v>
@@ -1074,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A20" sqref="A20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,11 +1285,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1307,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,11 +1523,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A8:C23"/>
+  <oleSize ref="A12:M29"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="74">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -234,16 +234,13 @@
     <t>ZestIOT_2268_Verifying_COBT_For_GMR_HYD_SG_User</t>
   </si>
   <si>
-    <t xml:space="preserve"> anantwar@zestiot.io, pdwadasi@enhops.com, rbuddha@enhops.com, smunnangi@enhops.com, mpyla@enhops.com, rchiluka@enhops.com, stiyyagura@enhops.com</t>
-  </si>
-  <si>
-    <t>stiyyagura@enhops.com</t>
-  </si>
-  <si>
     <t>ZestIOT_AV_2293_GMR_HYD_SensorATA_And_Scheduled_data_Validation</t>
   </si>
   <si>
     <t>ZestIOT_AV_2294_GMR_HYD_SensorATD_And_Scheduled_data_Validation</t>
+  </si>
+  <si>
+    <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -658,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,12 +790,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>72</v>
+      <c r="B25" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,9 +823,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -837,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1043,7 @@
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
@@ -1057,7 +1051,7 @@
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>10</v>
@@ -1073,7 +1067,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,9 +1259,7 @@
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1287,7 +1279,7 @@
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
@@ -1295,16 +1287,13 @@
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" display="stiyyagura@enhops.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1313,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,15 +1488,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1515,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1523,17 +1515,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>10</v>
@@ -1541,6 +1533,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A12:M29"/>
+  <oleSize ref="A19:M24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="74">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -655,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -790,13 +790,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A19:M24"/>
+  <oleSize ref="A8:D23"/>
 </workbook>
 </file>
 
@@ -655,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1020,7 @@
         <v>68</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
         <v>72</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -1052,7 +1052,7 @@
         <v>72</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -830,7 +830,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1020,7 @@
         <v>68</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A8:D23"/>
+  <oleSize ref="A19:M36"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stiyyagura@enhops.com, nishanth@zestiot.io </t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -368,6 +371,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -655,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,11 +796,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -821,6 +829,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -829,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A19:M36"/>
+  <oleSize ref="A12:E22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="74">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stiyyagura@enhops.com, nishanth@zestiot.io </t>
   </si>
 </sst>
 </file>
@@ -354,7 +351,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -371,9 +368,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -661,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,12 +790,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>74</v>
+      <c r="B25" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6015" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A12:E22"/>
+  <oleSize ref="A19:G24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="74">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -655,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -790,13 +790,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -823,9 +821,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1305,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A19:G24"/>
+  <oleSize ref="A8:C23"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="75">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2307_GMR_HYD_SensorATA_OnBlock_OffBlock_SensorATD_Validation</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -827,10 +830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,6 +1055,14 @@
         <v>72</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="6015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A8:C23"/>
+  <oleSize ref="A19:M31"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>ZestIOT_AV_2307_GMR_HYD_SensorATA_OnBlock_OffBlock_SensorATD_Validation</t>
+  </si>
+  <si>
+    <t>nishanth@zestiot.io, hmanthena@enhops.com, pdwadasi@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -658,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -793,11 +796,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -832,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A19:M31"/>
+  <oleSize ref="A22:C39"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="79">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -225,15 +225,6 @@
     <t>ZestIOT_016_Celebi_User_BFL_group_Activity_Validation</t>
   </si>
   <si>
-    <t>ZestIOT_2268_Verifying_COBT_For_DIALCelebi_User</t>
-  </si>
-  <si>
-    <t>ZestIOT_2268_Verifying_COBT_For_GMR_HYD_AISATS_User</t>
-  </si>
-  <si>
-    <t>ZestIOT_2268_Verifying_COBT_For_GMR_HYD_SG_User</t>
-  </si>
-  <si>
     <t>ZestIOT_AV_2293_GMR_HYD_SensorATA_And_Scheduled_data_Validation</t>
   </si>
   <si>
@@ -243,10 +234,28 @@
     <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com</t>
   </si>
   <si>
-    <t>ZestIOT_AV_2307_GMR_HYD_SensorATA_OnBlock_OffBlock_SensorATD_Validation</t>
-  </si>
-  <si>
     <t>nishanth@zestiot.io, hmanthena@enhops.com, pdwadasi@enhops.com</t>
+  </si>
+  <si>
+    <t>AV_2268_Validate_Accuracy_of_COBT_For_DIALCelebi_User</t>
+  </si>
+  <si>
+    <t>AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_AISATS_User</t>
+  </si>
+  <si>
+    <t>AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_SG_User</t>
+  </si>
+  <si>
+    <t>AV_2293_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Arrival_Aircrafts</t>
+  </si>
+  <si>
+    <t>AV_2294_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Departure_Aircrafts</t>
+  </si>
+  <si>
+    <t>AV_2307_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
+  </si>
+  <si>
+    <t>AV_2304_Identify_the_coverage_of_Boarding_activities_and_validate_timestamps</t>
   </si>
 </sst>
 </file>
@@ -661,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -801,7 +810,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,10 +844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1034,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>10</v>
@@ -1033,7 +1042,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
@@ -1041,23 +1050,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>10</v>
@@ -1065,10 +1074,18 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1310,7 @@
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
@@ -1301,7 +1318,7 @@
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>10</v>
@@ -1510,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1531,7 +1548,7 @@
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
@@ -1539,7 +1556,7 @@
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>10</v>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -234,28 +234,28 @@
     <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com</t>
   </si>
   <si>
-    <t>nishanth@zestiot.io, hmanthena@enhops.com, pdwadasi@enhops.com</t>
-  </si>
-  <si>
-    <t>AV_2268_Validate_Accuracy_of_COBT_For_DIALCelebi_User</t>
-  </si>
-  <si>
-    <t>AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_AISATS_User</t>
-  </si>
-  <si>
-    <t>AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_SG_User</t>
-  </si>
-  <si>
-    <t>AV_2293_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Arrival_Aircrafts</t>
-  </si>
-  <si>
-    <t>AV_2294_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Departure_Aircrafts</t>
-  </si>
-  <si>
-    <t>AV_2307_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
-  </si>
-  <si>
-    <t>AV_2304_Identify_the_coverage_of_Boarding_activities_and_validate_timestamps</t>
+    <t>stiyyagura@enhops.com</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2268_Validate_Accuracy_of_COBT_For_DIALCelebi_User</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_AISATS_User</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_SG_User</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2293_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Arrival_Aircrafts</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2294_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Departure_Aircrafts</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2307_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2304_Identify_the_coverage_of_Boarding_activities_and_validate_timestamps</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,6 +383,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -671,7 +674,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,11 +808,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -838,6 +841,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -846,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1056,7 +1062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>75</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>76</v>
       </c>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="6015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A22:C39"/>
+  <oleSize ref="A19:M24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="85">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -234,9 +234,6 @@
     <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com</t>
   </si>
   <si>
-    <t>stiyyagura@enhops.com</t>
-  </si>
-  <si>
     <t>ZestIOT_AV_2268_Validate_Accuracy_of_COBT_For_DIALCelebi_User</t>
   </si>
   <si>
@@ -256,6 +253,27 @@
   </si>
   <si>
     <t>ZestIOT_AV_2304_Identify_the_coverage_of_Boarding_activities_and_validate_timestamps</t>
+  </si>
+  <si>
+    <t>AV_2268_Validate_Accuracy_of_COBT_For_DIALCelebi_User</t>
+  </si>
+  <si>
+    <t>AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_AISATS_User</t>
+  </si>
+  <si>
+    <t>AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_SG_User</t>
+  </si>
+  <si>
+    <t>AV_2293_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Arrival_Aircrafts</t>
+  </si>
+  <si>
+    <t>AV_2294_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Departure_Aircrafts</t>
+  </si>
+  <si>
+    <t>AV_2307_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
+  </si>
+  <si>
+    <t>AV_2304_Identify_the_coverage_of_Boarding_activities_and_validate_timestamps</t>
   </si>
 </sst>
 </file>
@@ -366,7 +384,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,9 +401,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -673,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,12 +823,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>71</v>
+      <c r="B25" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -842,7 +857,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -852,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,60 +1053,81 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
       <c r="B23" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1140,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="86">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>AV_2304_Identify_the_coverage_of_Boarding_activities_and_validate_timestamps</t>
+  </si>
+  <si>
+    <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com,mpyla@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -688,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +831,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -276,7 +276,7 @@
     <t>AV_2304_Identify_the_coverage_of_Boarding_activities_and_validate_timestamps</t>
   </si>
   <si>
-    <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com,mpyla@enhops.com</t>
+    <t>stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -404,6 +404,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -691,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,11 +829,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -860,7 +863,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
+    <hyperlink ref="B25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A19:M24"/>
+  <oleSize ref="A15:C29"/>
 </workbook>
 </file>
 
@@ -243,12 +243,6 @@
     <t>ZestIOT_AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_SG_User</t>
   </si>
   <si>
-    <t>ZestIOT_AV_2293_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Arrival_Aircrafts</t>
-  </si>
-  <si>
-    <t>ZestIOT_AV_2294_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Departure_Aircrafts</t>
-  </si>
-  <si>
     <t>ZestIOT_AV_2307_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
   </si>
   <si>
@@ -277,6 +271,12 @@
   </si>
   <si>
     <t>stiyyagura@enhops.com</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2293_GMR_HYD_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Arrival_Aircrafts</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2294__GMR_HYD_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Departure_Aircrafts</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -834,7 +834,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,51 +1089,51 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -276,13 +276,13 @@
     <t>AV_2304_Identify_the_coverage_of_Boarding_activities_and_validate_timestamps</t>
   </si>
   <si>
-    <t>stiyyagura@enhops.com</t>
+    <t>xxx@enhops.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,16 +694,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -728,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -779,12 +779,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -800,7 +800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -808,7 +808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -824,12 +824,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -837,7 +837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -845,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -853,7 +853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -877,13 +877,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -894,7 +894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -905,7 +905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -916,7 +916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -927,7 +927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -938,7 +938,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -949,7 +949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -960,7 +960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -971,7 +971,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -982,7 +982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -993,7 +993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>75</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1149,13 +1149,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1385,13 +1385,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1624,17 +1624,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18012" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A15:F33"/>
+  <oleSize ref="A16:K31"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="80">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -243,46 +243,28 @@
     <t>ZestIOT_AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_SG_User</t>
   </si>
   <si>
-    <t>ZestIOT_AV_2293_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Arrival_Aircrafts</t>
-  </si>
-  <si>
-    <t>ZestIOT_AV_2294_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Departure_Aircrafts</t>
-  </si>
-  <si>
     <t>ZestIOT_AV_2307_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
   </si>
   <si>
-    <t>ZestIOT_AV_2304_Identify_the_coverage_of_Boarding_activities_and_validate_timestamps</t>
-  </si>
-  <si>
-    <t>AV_2268_Validate_Accuracy_of_COBT_For_DIALCelebi_User</t>
-  </si>
-  <si>
-    <t>AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_AISATS_User</t>
-  </si>
-  <si>
-    <t>AV_2268_Validate_Accuracy_of_COBT_For_GMR_HYD_SG_User</t>
-  </si>
-  <si>
-    <t>AV_2293_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Arrival_Aircrafts</t>
-  </si>
-  <si>
-    <t>AV_2294_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Departure_Aircrafts</t>
-  </si>
-  <si>
-    <t>AV_2307_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
-  </si>
-  <si>
-    <t>AV_2304_Identify_the_coverage_of_Boarding_activities_and_validate_timestamps</t>
-  </si>
-  <si>
-    <t>xxx@enhops.com</t>
+    <t>ZestIOT_AV_2293_DIAL_Delhi_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Arrival_Aircrafts</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2293_GMR_HYD_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Arrival_Aircrafts</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2294__DIAL_Delhi_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Departure_Aircrafts</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2294__GMR_HYD_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Departure_Aircrafts</t>
+  </si>
+  <si>
+    <t>stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,16 +676,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -728,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -745,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -762,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -779,12 +761,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -792,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -800,7 +782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -808,7 +790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -816,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -824,20 +806,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -845,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -853,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -871,19 +853,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -894,7 +876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -905,7 +887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -916,7 +898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -927,7 +909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -938,7 +920,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -949,7 +931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -960,7 +942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -971,7 +953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -982,7 +964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -993,7 +975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1004,7 +986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1015,7 +997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1026,7 +1008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1037,7 +1019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1048,7 +1030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1059,7 +1041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1067,10 +1049,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -1078,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1089,51 +1071,62 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
+      <c r="B24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1149,13 +1142,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.33203125" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1166,7 +1159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1177,7 +1170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1188,7 +1181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1199,7 +1192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1210,7 +1203,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1221,7 +1214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1243,7 +1236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1254,7 +1247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1265,7 +1258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1276,7 +1269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1287,7 +1280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1298,7 +1291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1309,7 +1302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1320,7 +1313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1331,7 +1324,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1340,7 +1333,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1348,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1356,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1364,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1385,13 +1378,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1402,7 +1395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1413,7 +1406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1424,7 +1417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1435,7 +1428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1446,7 +1439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1457,7 +1450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1468,7 +1461,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1479,7 +1472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1490,7 +1483,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1501,7 +1494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1512,7 +1505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1523,7 +1516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1534,7 +1527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1545,7 +1538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1556,7 +1549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1567,7 +1560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1578,7 +1571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1586,7 +1579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1594,7 +1587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1602,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1624,17 +1617,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="6015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A16:K31"/>
+  <oleSize ref="B12:G22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="79">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -231,9 +231,6 @@
     <t>ZestIOT_AV_2294_GMR_HYD_SensorATD_And_Scheduled_data_Validation</t>
   </si>
   <si>
-    <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com</t>
-  </si>
-  <si>
     <t>ZestIOT_AV_2268_Validate_Accuracy_of_COBT_For_DIALCelebi_User</t>
   </si>
   <si>
@@ -258,7 +255,7 @@
     <t>ZestIOT_AV_2294__GMR_HYD_Identify_coverage_of_Flight_Sensor_and_Validate_timestamps_of_Departure_Aircrafts</t>
   </si>
   <si>
-    <t>stiyyagura@enhops.com</t>
+    <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com, mpyla@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -369,7 +366,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -386,9 +383,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,12 +805,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>79</v>
+      <c r="B25" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +839,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1043,90 +1037,90 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1374,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1568,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,8 +1598,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" display="stiyyagura@enhops.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="6015" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B12:G22"/>
+  <oleSize ref="A25:K25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="79">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,13 +805,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -838,9 +836,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1368,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+    <sheetView topLeftCell="B12" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="80">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com, mpyla@enhops.com</t>
+  </si>
+  <si>
+    <t>stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,6 +386,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,11 +811,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -836,6 +844,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18012" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="80">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -256,12 +256,15 @@
   </si>
   <si>
     <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com, mpyla@enhops.com</t>
+  </si>
+  <si>
+    <t>xxx@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,7 +369,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,6 +386,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,16 +676,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -704,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -721,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -738,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -755,12 +761,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -768,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -776,7 +782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -784,7 +790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -792,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -800,18 +806,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -819,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -827,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -836,6 +844,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -848,13 +859,13 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -865,7 +876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -876,7 +887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -887,7 +898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -898,7 +909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -909,7 +920,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -920,7 +931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -931,7 +942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -942,7 +953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -953,7 +964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -964,7 +975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -975,7 +986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -986,7 +997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -997,7 +1008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1008,7 +1019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1019,7 +1030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1030,7 +1041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1041,7 +1052,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1052,7 +1063,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1063,7 +1074,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
@@ -1074,7 +1085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>75</v>
       </c>
@@ -1085,7 +1096,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1096,7 +1107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1107,7 +1118,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1131,13 +1142,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1148,7 +1159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1159,7 +1170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1170,7 +1181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1181,7 +1192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1192,7 +1203,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1203,7 +1214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1214,7 +1225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1225,7 +1236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1236,7 +1247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1247,7 +1258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1258,7 +1269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1269,7 +1280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1280,7 +1291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1291,7 +1302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1302,7 +1313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1313,7 +1324,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1322,7 +1333,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1330,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1338,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1346,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1367,13 +1378,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1384,7 +1395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1395,7 +1406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1406,7 +1417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1417,7 +1428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1428,7 +1439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1439,7 +1450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1450,7 +1461,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1461,7 +1472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1472,7 +1483,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1483,7 +1494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1494,7 +1505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1505,7 +1516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1516,7 +1527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1527,7 +1538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1538,7 +1549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1549,7 +1560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1560,7 +1571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1568,7 +1579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1576,7 +1587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1584,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1609,17 +1620,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16296" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A25:K25"/>
+  <oleSize ref="A15:C28"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="82">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -259,12 +259,18 @@
   </si>
   <si>
     <t>stiyyagura@enhops.com</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2307_DIAL_Delhi_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
+  </si>
+  <si>
+    <t>ZestIOT_AV_2307_GMR_HYD_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,16 +682,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F33:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -710,7 +716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -727,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -744,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -761,12 +767,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -774,7 +780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -782,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -790,7 +796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -798,7 +804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -806,12 +812,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -819,7 +825,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -827,7 +833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -835,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -853,19 +859,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -876,7 +882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -887,7 +893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -898,7 +904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -909,7 +915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -920,7 +926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -931,7 +937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -942,7 +948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -953,7 +959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -964,7 +970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -975,7 +981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -986,7 +992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>75</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1118,15 +1124,26 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1142,13 +1159,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.33203125" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1159,7 +1176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1170,7 +1187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1192,7 +1209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1203,7 +1220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1214,7 +1231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1225,7 +1242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1236,7 +1253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1247,7 +1264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1258,7 +1275,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1269,7 +1286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1280,7 +1297,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1291,7 +1308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1302,7 +1319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1313,7 +1330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1324,7 +1341,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1333,7 +1350,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1341,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1349,7 +1366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1357,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1378,13 +1395,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1395,7 +1412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1406,7 +1423,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1417,7 +1434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1428,7 +1445,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1439,7 +1456,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1450,7 +1467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1461,7 +1478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1472,7 +1489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1483,7 +1500,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1494,7 +1511,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1505,7 +1522,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1516,7 +1533,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1527,7 +1544,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1538,7 +1555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1549,7 +1566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1560,7 +1577,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1571,7 +1588,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1579,7 +1596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1587,7 +1604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1595,7 +1612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1620,17 +1637,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="6015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A15:C28"/>
+  <oleSize ref="A1:L18"/>
 </workbook>
 </file>
 
@@ -258,13 +258,13 @@
     <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, sudhir@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, aman@zestiot.io, rohan@zestiot.io, leadership@enhops.com, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com, mpyla@enhops.com</t>
   </si>
   <si>
-    <t>stiyyagura@enhops.com</t>
-  </si>
-  <si>
     <t>ZestIOT_AV_2307_DIAL_Delhi_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
   </si>
   <si>
     <t>ZestIOT_AV_2307_GMR_HYD_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
+  </si>
+  <si>
+    <t>stiyyagura@enhops.com, nishanth@zestiot.io</t>
   </si>
 </sst>
 </file>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F33:F34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,12 +817,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -861,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>10</v>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -264,7 +264,7 @@
     <t>ZestIOT_AV_2307_GMR_HYD_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
   </si>
   <si>
-    <t>stiyyagura@enhops.com, nishanth@zestiot.io</t>
+    <t>stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -851,7 +851,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
+    <hyperlink ref="B25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L18"/>
+  <oleSize ref="A15:C28"/>
 </workbook>
 </file>
 
@@ -682,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1063,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
@@ -1074,7 +1074,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -1085,7 +1085,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>74</v>
@@ -1096,7 +1096,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>75</v>
@@ -1107,7 +1107,7 @@
         <v>76</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>76</v>
@@ -1118,7 +1118,7 @@
         <v>77</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -1129,7 +1129,7 @@
         <v>79</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>73</v>
@@ -1140,7 +1140,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>80</v>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="6015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A15:C28"/>
+  <oleSize ref="A12:L29"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="81">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>ZestIOT_AV_2307_GMR_HYD_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
-  </si>
-  <si>
-    <t>stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -375,7 +372,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,9 +389,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,12 +811,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>81</v>
+      <c r="B25" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +845,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -861,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B25"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1057,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
@@ -1074,7 +1068,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -1085,7 +1079,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>74</v>
@@ -1096,7 +1090,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>75</v>
@@ -1107,7 +1101,7 @@
         <v>76</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>76</v>
@@ -1118,7 +1112,7 @@
         <v>77</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -1129,7 +1123,7 @@
         <v>79</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>73</v>
@@ -1140,7 +1134,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>80</v>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\ZestIOTAutomation\src\test\resources\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="6015"/>
   </bookViews>
@@ -14,12 +19,11 @@
     <sheet name="DeviceName" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A12:L29"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="81">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -372,7 +376,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -389,6 +393,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,177 +683,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.85546875" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -856,7 +859,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="82">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>ZestIOT_AV_2307_GMR_HYD_Validate_LANDING_ONBLOCK_OFFBLOCK_AIRBORNE_timestamps_of_Arrival_and_Departure_aircrafts_Any_Data_source</t>
+  </si>
+  <si>
+    <t>Script_Reference</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,6 +399,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -683,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -824,6 +830,7 @@
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -856,10 +863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +877,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>28</v>
@@ -1060,7 +1067,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
@@ -1071,7 +1078,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -1082,7 +1089,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>74</v>
@@ -1093,7 +1100,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>75</v>
@@ -1104,7 +1111,7 @@
         <v>76</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>76</v>
@@ -1115,7 +1122,7 @@
         <v>77</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -1126,7 +1133,7 @@
         <v>79</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>73</v>
@@ -1137,11 +1144,17 @@
         <v>80</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>80</v>
       </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="6015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="83">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Script_Reference</t>
+  </si>
+  <si>
+    <t>stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -689,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +833,9 @@
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -857,6 +862,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -865,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1075,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
@@ -1078,7 +1086,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -1089,7 +1097,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>74</v>
@@ -1100,7 +1108,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>75</v>
@@ -1111,7 +1119,7 @@
         <v>76</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>76</v>
@@ -1122,7 +1130,7 @@
         <v>77</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -1133,7 +1141,7 @@
         <v>79</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>73</v>
@@ -1144,7 +1152,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>80</v>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="82">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>Script_Reference</t>
-  </si>
-  <si>
-    <t>stiyyagura@enhops.com</t>
   </si>
 </sst>
 </file>
@@ -382,7 +379,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -402,9 +399,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,7 +687,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,8 +827,8 @@
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>82</v>
+      <c r="B25" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +857,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -874,7 +868,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1146,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>80</v>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="82">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -827,9 +827,6 @@
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -856,9 +853,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
+++ b/target/test-classes/ExcelFiles/AutomationControlSheet.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16296" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="81">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,16 +676,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -710,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -761,12 +761,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -774,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -782,7 +782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -790,7 +790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -798,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -806,20 +806,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -827,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -835,7 +833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -844,9 +842,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -859,13 +854,13 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -876,7 +871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -887,7 +882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -898,7 +893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -909,7 +904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -920,7 +915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -931,7 +926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -942,7 +937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -953,7 +948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -964,7 +959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -975,7 +970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -986,7 +981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -997,7 +992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1008,7 +1003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1019,7 +1014,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1030,7 +1025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1041,7 +1036,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1052,7 +1047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1063,7 +1058,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1074,7 +1069,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
@@ -1085,7 +1080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>75</v>
       </c>
@@ -1096,7 +1091,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1107,7 +1102,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1118,7 +1113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -1129,7 +1124,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -1153,13 +1148,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1170,7 +1165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1181,7 +1176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1192,7 +1187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1203,7 +1198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1214,7 +1209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1225,7 +1220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1236,7 +1231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1247,7 +1242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1258,7 +1253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1269,7 +1264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1280,7 +1275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1291,7 +1286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1302,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1313,7 +1308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1324,7 +1319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1335,7 +1330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1344,7 +1339,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1352,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1360,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1368,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1389,13 +1384,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1417,7 +1412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1428,7 +1423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1439,7 +1434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1450,7 +1445,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1461,7 +1456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1472,7 +1467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1483,7 +1478,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1494,7 +1489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1505,7 +1500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1516,7 +1511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1527,7 +1522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1538,7 +1533,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1549,7 +1544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1560,7 +1555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1571,7 +1566,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1582,7 +1577,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1590,7 +1585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1598,7 +1593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1606,7 +1601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -1631,17 +1626,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
